--- a/SPE_Paper/Final/dfssoil.xlsx
+++ b/SPE_Paper/Final/dfssoil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SPE_Paper\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE71AFD-D24C-4A1E-9728-72ECEF37A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF63E81A-9C4E-4A56-9C0D-9C255F1C8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23244" yWindow="132" windowWidth="21828" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:U437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
